--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,8 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -819,8 +825,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +863,8 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -863,8 +872,11 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,23 +985,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1010,11 +1029,14 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1055,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,22 +1097,23 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1099,25 +1125,28 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,13 +1154,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1143,25 +1172,28 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,11 +1220,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,66 +1270,69 @@
         <v>-900</v>
       </c>
       <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,11 +1784,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,11 +2062,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,34 +2144,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,20 +2285,23 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,8 +2393,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2301,8 +2408,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2319,25 +2426,28 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,20 +2661,23 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,28 +2748,29 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2663,19 +2793,22 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2684,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2692,8 +2825,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2707,78 +2840,84 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
@@ -2787,25 +2926,28 @@
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2839,20 +2981,23 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3169,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
@@ -3051,16 +3208,19 @@
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,19 +3329,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3000</v>
       </c>
       <c r="L72" s="3">
         <v>-3000</v>
       </c>
       <c r="M72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2800</v>
       </c>
       <c r="O72" s="3">
         <v>-2800</v>
       </c>
       <c r="P72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,34 +3611,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
@@ -3465,16 +3650,19 @@
         <v>-800</v>
       </c>
       <c r="N76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-700</v>
       </c>
       <c r="P76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,20 +4105,23 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,23 +4329,23 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4124,14 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,26 +4566,29 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,20 +4660,23 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,17 +833,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,17 +886,23 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,29 +1022,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1032,11 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,28 +1150,30 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1128,10 +1182,10 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1143,10 +1197,16 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,19 +1214,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1175,10 +1235,10 @@
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1190,10 +1250,16 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,17 +1288,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,22 +1341,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
@@ -1291,7 +1365,7 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1303,42 +1377,48 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1352,40 +1432,46 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1397,10 +1483,16 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,40 +1591,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1538,42 +1642,48 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1585,10 +1695,16 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,17 +1924,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1822,40 +1962,46 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1867,10 +2013,16 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,40 +2068,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1961,62 +2119,74 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,14 +2239,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,40 +2327,46 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,17 +2501,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2396,11 +2612,11 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2411,11 +2627,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,22 +2660,22 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,17 +2925,17 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,34 +3009,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2796,43 +3058,49 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2843,102 +3111,120 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,14 +3232,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2984,26 +3270,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3013,11 +3305,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3341,17 +3677,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
       </c>
       <c r="O76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,92 +4086,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3805,10 +4195,16 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,20 +4235,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,25 +4536,31 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4332,38 +4792,44 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,32 +5055,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,8 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +902,8 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,18 +1062,18 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1188,25 +1215,28 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,19 +1247,19 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1241,25 +1271,28 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,20 +1322,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-900</v>
       </c>
       <c r="H21" s="3">
         <v>-900</v>
       </c>
       <c r="I21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,32 +1436,32 @@
       <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,20 +1994,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2245,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2347,29 +2440,29 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2507,14 +2609,14 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2618,8 +2726,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,19 +2777,19 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -2931,14 +3057,14 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3064,28 +3195,31 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3094,7 +3228,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3102,8 +3236,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3117,96 +3251,102 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
@@ -3215,16 +3355,19 @@
         <v>800</v>
       </c>
       <c r="Q60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
       </c>
       <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3238,11 +3381,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,15 +3436,15 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
@@ -3533,16 +3691,19 @@
         <v>800</v>
       </c>
       <c r="Q66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
       <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3683,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-3000</v>
       </c>
       <c r="O72" s="3">
         <v>-3000</v>
       </c>
       <c r="P72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-2800</v>
       </c>
       <c r="R72" s="3">
         <v>-2800</v>
       </c>
       <c r="S72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,43 +4169,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
@@ -4031,16 +4217,19 @@
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-700</v>
       </c>
       <c r="S76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4244,14 +4443,14 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,29 +4756,32 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4798,23 +5028,23 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,35 +5304,38 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,13 +5416,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5182,14 +5434,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,17 +862,23 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,17 +924,23 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1081,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1065,21 +1104,21 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1101,11 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,37 +1230,39 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1218,10 +1271,10 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1233,10 +1286,16 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,28 +1303,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1274,10 +1333,10 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1289,10 +1348,16 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,26 +1389,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,31 +1451,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
@@ -1411,7 +1484,7 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1423,51 +1496,57 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,49 +1560,55 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1535,10 +1620,16 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,49 +1746,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1703,51 +1806,57 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1759,10 +1868,16 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,26 +2133,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2041,49 +2180,55 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2095,10 +2240,16 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2304,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2207,71 +2364,83 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,20 +2485,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2335,14 +2508,14 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,32 +2628,32 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,35 +2791,41 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2729,11 +2944,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2744,11 +2959,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2780,22 +3001,22 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,35 +3287,41 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,31 +3415,31 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3198,52 +3459,58 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3254,120 +3521,138 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
+        <v>800</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,14 +3669,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3439,18 +3730,18 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3854,17 +4189,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
       </c>
       <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +4661,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4399,10 +4788,16 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,17 +4834,17 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4455,8 +4852,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,25 +5201,25 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5031,38 +5490,44 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5792,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,35 +5916,41 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,8 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,8 +940,8 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1110,18 +1130,18 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,40 +1258,41 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1277,25 +1304,28 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,31 +1333,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1339,25 +1369,28 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,29 +1423,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,69 +1491,72 @@
         <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-900</v>
       </c>
       <c r="K21" s="3">
         <v>-900</v>
       </c>
       <c r="L21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1524,32 +1564,32 @@
       <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,29 +2203,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2573,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2514,11 +2601,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2634,29 +2727,29 @@
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,22 +2896,25 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2821,14 +2923,14 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,16 +3026,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2950,8 +3058,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3007,19 +3118,19 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3416,25 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3317,14 +3443,14 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,46 +3533,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3465,37 +3596,40 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3504,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3512,8 +3646,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3527,114 +3661,120 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
+        <v>800</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
@@ -3643,16 +3783,19 @@
         <v>800</v>
       </c>
       <c r="T60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U60" s="3">
         <v>700</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3675,11 +3818,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3736,15 +3882,15 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
@@ -4015,16 +4173,19 @@
         <v>800</v>
       </c>
       <c r="T66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4195,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>200</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-3000</v>
       </c>
       <c r="R72" s="3">
         <v>-3000</v>
       </c>
       <c r="S72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-2800</v>
       </c>
       <c r="U72" s="3">
         <v>-2800</v>
       </c>
       <c r="V72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,52 +4726,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
@@ -4597,16 +4783,19 @@
         <v>-800</v>
       </c>
       <c r="T76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="U76" s="3">
         <v>-700</v>
       </c>
       <c r="V76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4840,8 +5039,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4849,14 +5048,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,38 +5406,41 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5496,23 +5726,23 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,44 +6041,47 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,23 +6171,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5946,14 +6198,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,8 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,8 +953,8 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1133,18 +1153,18 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,43 +1285,44 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1307,25 +1334,28 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,34 +1363,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1372,25 +1402,28 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,32 +1457,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,78 +1525,81 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1000</v>
+        <v>-3000</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-900</v>
       </c>
       <c r="L21" s="3">
         <v>-900</v>
       </c>
       <c r="M21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1567,32 +1607,32 @@
       <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-1000</v>
       </c>
       <c r="K23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-1000</v>
       </c>
       <c r="K26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-1000</v>
       </c>
       <c r="K27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,32 +2273,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-1000</v>
       </c>
       <c r="K33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-1000</v>
       </c>
       <c r="K35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,26 +2660,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2604,11 +2691,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,7 +2806,7 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2730,29 +2823,29 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2899,25 +2998,28 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2926,14 +3028,14 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3040,8 +3148,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3061,8 +3169,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3121,19 +3232,19 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,16 +3554,16 @@
         <v>600</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -3446,14 +3572,14 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,49 +3664,50 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3599,40 +3730,43 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3641,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3649,8 +3783,8 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3664,120 +3798,126 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>800</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
@@ -3786,16 +3926,19 @@
         <v>800</v>
       </c>
       <c r="U60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>700</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3821,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3859,41 +4002,44 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,55 +4274,58 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
@@ -4176,16 +4334,19 @@
         <v>800</v>
       </c>
       <c r="U66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>700</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4366,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>200</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-3000</v>
       </c>
       <c r="S72" s="3">
         <v>-3000</v>
       </c>
       <c r="T72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-2800</v>
       </c>
       <c r="V72" s="3">
         <v>-2800</v>
       </c>
       <c r="W72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,55 +4912,58 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-800</v>
       </c>
       <c r="S76" s="3">
         <v>-800</v>
@@ -4786,16 +4972,19 @@
         <v>-800</v>
       </c>
       <c r="U76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="V76" s="3">
         <v>-700</v>
       </c>
       <c r="W76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-1000</v>
       </c>
       <c r="K81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5042,8 +5241,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -5051,14 +5250,14 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,41 +5623,44 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,17 +5921,20 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5729,23 +5959,23 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5753,14 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,47 +6287,50 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,26 +6423,29 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6201,14 +6453,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,8 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,8 +965,8 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,8 +1160,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1156,18 +1175,18 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1192,11 +1211,14 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,46 +1311,47 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1337,25 +1363,28 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,37 +1392,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1405,25 +1434,28 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,35 +1490,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1000</v>
       </c>
       <c r="G21" s="3">
         <v>-1000</v>
       </c>
       <c r="H21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-900</v>
       </c>
       <c r="M21" s="3">
         <v>-900</v>
       </c>
       <c r="N21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,16 +1632,16 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1610,32 +1649,32 @@
       <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
       </c>
       <c r="L23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-1000</v>
       </c>
       <c r="L26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
       </c>
       <c r="L27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,35 +2342,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
       </c>
       <c r="L33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
       </c>
       <c r="L35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,20 +2756,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2694,11 +2780,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,19 +2886,22 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2826,29 +2918,29 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,17 +3028,20 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -3001,28 +3099,31 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3031,14 +3132,14 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,8 +3258,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3172,8 +3279,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3187,8 +3294,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3235,19 +3345,19 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,28 +3667,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -3575,14 +3700,14 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,52 +3794,53 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3733,43 +3863,46 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3778,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3786,8 +3919,8 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3801,126 +3934,132 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
       <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>800</v>
@@ -3929,16 +4068,19 @@
         <v>800</v>
       </c>
       <c r="V60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>700</v>
       </c>
       <c r="X60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3967,11 +4109,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4031,18 +4176,18 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,58 +4431,61 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
@@ -4337,16 +4494,19 @@
         <v>800</v>
       </c>
       <c r="V66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>700</v>
       </c>
       <c r="X66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4537,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>200</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-3000</v>
       </c>
       <c r="T72" s="3">
         <v>-3000</v>
       </c>
       <c r="U72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-2800</v>
       </c>
       <c r="W72" s="3">
         <v>-2800</v>
       </c>
       <c r="X72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,58 +5097,61 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-800</v>
       </c>
       <c r="T76" s="3">
         <v>-800</v>
@@ -4975,16 +5160,19 @@
         <v>-800</v>
       </c>
       <c r="V76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="W76" s="3">
         <v>-700</v>
       </c>
       <c r="X76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
       </c>
       <c r="L81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5244,8 +5442,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5253,14 +5451,14 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,44 +5839,47 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,11 +6162,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5962,23 +6191,23 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5986,14 +6215,17 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,50 +6532,53 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,29 +6674,32 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6456,14 +6707,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,8 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,8 +978,8 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,8 +1183,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1178,18 +1198,18 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,49 +1338,50 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1366,25 +1393,28 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,40 +1422,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1437,25 +1467,28 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,38 +1524,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,90 +1598,93 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
       </c>
       <c r="H21" s="3">
         <v>-1000</v>
       </c>
       <c r="I21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-900</v>
       </c>
       <c r="N21" s="3">
         <v>-900</v>
       </c>
       <c r="O21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1652,32 +1692,32 @@
       <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-1000</v>
       </c>
       <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-1000</v>
       </c>
       <c r="M26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,38 +2412,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,32 +2833,33 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2783,11 +2870,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,22 +2979,25 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2921,29 +3014,29 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,11 +3139,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -3102,31 +3201,34 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -3135,14 +3237,14 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3261,8 +3369,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3282,8 +3390,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3297,8 +3405,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3315,13 +3423,16 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3348,19 +3459,19 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,22 +3805,22 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -3703,14 +3829,14 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,55 +3925,56 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3866,46 +3997,49 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3914,7 +4048,7 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3922,8 +4056,8 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -3937,132 +4071,138 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
+        <v>800</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
       </c>
       <c r="W59" s="3">
+        <v>700</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
-      </c>
-      <c r="X59" s="3">
-        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>800</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
@@ -4071,16 +4211,19 @@
         <v>800</v>
       </c>
       <c r="W60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4112,11 +4255,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4179,18 +4325,18 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,61 +4589,64 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
@@ -4497,16 +4655,19 @@
         <v>800</v>
       </c>
       <c r="W66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>700</v>
       </c>
       <c r="Y66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4707,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>200</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-3000</v>
       </c>
       <c r="U72" s="3">
         <v>-3000</v>
       </c>
       <c r="V72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-2800</v>
       </c>
       <c r="X72" s="3">
         <v>-2800</v>
       </c>
       <c r="Y72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,61 +5283,64 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-800</v>
       </c>
       <c r="U76" s="3">
         <v>-800</v>
@@ -5163,16 +5349,19 @@
         <v>-800</v>
       </c>
       <c r="W76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="X76" s="3">
         <v>-700</v>
       </c>
       <c r="Y76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5445,8 +5644,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -5454,14 +5653,14 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,47 +6056,50 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6165,11 +6395,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6194,23 +6424,23 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6218,14 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,53 +6778,56 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,32 +6926,35 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6710,14 +6962,14 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,8 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,8 +991,8 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,25 +1183,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1201,18 +1221,18 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,11 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,52 +1365,53 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
-        <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1396,25 +1423,28 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,43 +1452,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1470,25 +1500,28 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,41 +1558,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,96 +1635,99 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-1000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-900</v>
       </c>
       <c r="O21" s="3">
         <v>-900</v>
       </c>
       <c r="P21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1695,32 +1735,32 @@
       <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-1000</v>
       </c>
       <c r="N23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-1000</v>
       </c>
       <c r="N26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-1000</v>
       </c>
       <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,41 +2482,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-1000</v>
       </c>
       <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-1000</v>
       </c>
       <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,26 +2930,26 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2873,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,25 +3072,28 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3017,29 +3110,29 @@
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3142,11 +3241,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3213,25 +3315,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3240,14 +3342,14 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3372,8 +3480,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3393,8 +3501,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3408,8 +3516,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3435,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3462,19 +3573,19 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,22 +3934,22 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -3832,14 +3958,14 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,58 +4056,59 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4000,49 +4131,52 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4051,7 +4185,7 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4059,8 +4193,8 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4074,138 +4208,144 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>700</v>
       </c>
       <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>500</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
@@ -4214,16 +4354,19 @@
         <v>800</v>
       </c>
       <c r="X60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y60" s="3">
         <v>700</v>
       </c>
       <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4258,11 +4401,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4328,18 +4474,18 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,64 +4747,67 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
@@ -4658,16 +4816,19 @@
         <v>800</v>
       </c>
       <c r="X66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y66" s="3">
         <v>700</v>
       </c>
       <c r="Z66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4878,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>200</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-3000</v>
       </c>
       <c r="V72" s="3">
         <v>-3000</v>
       </c>
       <c r="W72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-2800</v>
       </c>
       <c r="Y72" s="3">
         <v>-2800</v>
       </c>
       <c r="Z72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,64 +5469,67 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-800</v>
       </c>
       <c r="V76" s="3">
         <v>-800</v>
@@ -5352,16 +5538,19 @@
         <v>-800</v>
       </c>
       <c r="X76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="Y76" s="3">
         <v>-700</v>
       </c>
       <c r="Z76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-1000</v>
       </c>
       <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5647,8 +5846,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -5656,14 +5855,14 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,41 +6285,41 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6398,11 +6628,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6427,23 +6657,23 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6451,14 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,47 +7036,47 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,35 +7178,38 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6965,14 +7217,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>LFAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,8 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,8 +1004,8 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,18 +1244,18 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,55 +1392,56 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1426,25 +1453,28 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,46 +1482,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1503,25 +1533,28 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,44 +1592,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,102 +1672,105 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1000</v>
       </c>
       <c r="J21" s="3">
         <v>-1000</v>
       </c>
       <c r="K21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
       </c>
       <c r="P21" s="3">
         <v>-900</v>
       </c>
       <c r="Q21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1738,32 +1778,32 @@
       <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-1000</v>
       </c>
       <c r="O23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-1000</v>
       </c>
       <c r="O26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-1000</v>
       </c>
       <c r="O27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,44 +2552,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-1000</v>
       </c>
       <c r="O33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-1000</v>
       </c>
       <c r="O35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2933,26 +3020,26 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2963,11 +3050,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3086,17 +3179,17 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3113,29 +3206,29 @@
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3244,11 +3343,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3318,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3345,14 +3447,14 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,28 +3565,31 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3504,8 +3612,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3519,8 +3627,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3576,19 +3687,19 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,22 +4063,22 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -3961,14 +4087,14 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,61 +4187,62 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,43 +4277,43 @@
         <v>2700</v>
       </c>
       <c r="E58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4188,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4196,8 +4330,8 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
@@ -4211,144 +4345,150 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>800</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
       </c>
       <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="E60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>800</v>
@@ -4357,16 +4497,19 @@
         <v>800</v>
       </c>
       <c r="Y60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z60" s="3">
         <v>700</v>
       </c>
       <c r="AA60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4404,11 +4547,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4477,18 +4623,18 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,67 +4905,70 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="E66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>800</v>
@@ -4819,16 +4977,19 @@
         <v>800</v>
       </c>
       <c r="Y66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z66" s="3">
         <v>700</v>
       </c>
       <c r="AA66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5049,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>200</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23800</v>
+        <v>-24500</v>
       </c>
       <c r="E72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-3000</v>
       </c>
       <c r="W72" s="3">
         <v>-3000</v>
       </c>
       <c r="X72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-2800</v>
       </c>
       <c r="Z72" s="3">
         <v>-2800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,67 +5655,70 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-800</v>
       </c>
       <c r="W76" s="3">
         <v>-800</v>
@@ -5541,16 +5727,19 @@
         <v>-800</v>
       </c>
       <c r="Y76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="Z76" s="3">
         <v>-700</v>
       </c>
       <c r="AA76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-1000</v>
       </c>
       <c r="O81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5849,8 +6048,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -5858,14 +6057,14 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,53 +6490,56 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6631,11 +6861,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6660,23 +6890,23 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6684,14 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,59 +7270,62 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>700</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>700</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>600</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7193,26 +7445,26 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7220,14 +7472,14 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>
